--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skripsi\client\ayu rohmaniya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A56580-C560-4230-8E32-67F2A6CA0A26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AEF915B4-2E45-4435-89EE-4B3C11050704}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8D1099D7-CC30-45A0-B60A-21BB04D53FB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="blackbox" sheetId="1" r:id="rId1"/>
-    <sheet name="hak akses" sheetId="2" r:id="rId2"/>
-    <sheet name="skala" sheetId="3" r:id="rId3"/>
+    <sheet name="rencana blackbox" sheetId="9" r:id="rId1"/>
+    <sheet name="kasus blackbox" sheetId="8" r:id="rId2"/>
+    <sheet name="hasil blackbox" sheetId="1" r:id="rId3"/>
+    <sheet name="hak akses" sheetId="2" r:id="rId4"/>
+    <sheet name="skala" sheetId="3" r:id="rId5"/>
+    <sheet name="ds dataset" sheetId="4" r:id="rId6"/>
+    <sheet name="ds peramalan" sheetId="5" r:id="rId7"/>
+    <sheet name="ds pengguna" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="134">
   <si>
     <t>No</t>
   </si>
@@ -420,12 +419,111 @@
   <si>
     <t>Sangat Lengkap</t>
   </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Aksi</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>APE</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Contoh 1</t>
+  </si>
+  <si>
+    <t>Contoh 2</t>
+  </si>
+  <si>
+    <t>contoh1</t>
+  </si>
+  <si>
+    <t>contoh2</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pengguna</t>
+  </si>
+  <si>
+    <t>Skenario Butir Uji</t>
+  </si>
+  <si>
+    <t>Tingkat Pengujian</t>
+  </si>
+  <si>
+    <t>Jenis Pengujian</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Blackbox</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +598,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -580,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -612,6 +723,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -642,11 +759,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,11 +1088,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEFDADF-8951-408E-AE1C-F469CEF9100E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6A7D6A-90C7-40E8-9109-05C47DAA7ABD}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41.4" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="37.200000000000003" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="37.200000000000003" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.799999999999997" customHeight="1">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33.6" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="55.8" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="37.799999999999997" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="23.4" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="35.4" customHeight="1">
+      <c r="A17" s="15">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249F78CA-A217-46A1-8E67-C6A474CDF9CD}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -994,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.2" customHeight="1">
@@ -1013,9 +1511,7 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="56.4" customHeight="1">
       <c r="A3" s="3">
@@ -1033,9 +1529,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="79.2" customHeight="1">
       <c r="A4" s="3">
@@ -1053,15 +1547,352 @@
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.8" customHeight="1">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="55.8" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="100.8" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="91.2" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="68.400000000000006" customHeight="1">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="124.2" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.8" customHeight="1">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="55.8" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="100.8" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="91.2" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.8" customHeight="1">
+      <c r="A17" s="15">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="91.2" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.8" customHeight="1">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEFDADF-8951-408E-AE1C-F469CEF9100E}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="49.2" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="56.4" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="79.2" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.8" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1078,9 +1909,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="55.8" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1094,9 +1925,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="100.8" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1108,8 +1939,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1124,8 +1955,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="91.2" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1140,10 +1971,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="68.400000000000006" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1160,8 +1991,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="124.2" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1176,10 +2007,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.8" customHeight="1">
-      <c r="A12" s="13">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1196,9 +2027,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="55.8" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1212,9 +2043,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="100.8" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1226,8 +2057,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1242,8 +2073,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="91.2" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1258,10 +2089,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.8" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1278,8 +2109,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="91.2" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
         <v>52</v>
       </c>
@@ -1331,12 +2162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07942B-BF33-4B03-9318-807290DCEF1F}">
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1347,25 +2178,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="38.4" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="8" t="s">
         <v>67</v>
       </c>
@@ -1389,10 +2220,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1421,8 +2252,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8" t="s">
         <v>63</v>
       </c>
@@ -1449,8 +2280,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="8" t="s">
         <v>64</v>
       </c>
@@ -1477,8 +2308,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
@@ -1505,8 +2336,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1533,8 +2364,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1563,8 +2394,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="8" t="s">
         <v>63</v>
       </c>
@@ -1591,8 +2422,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
@@ -1619,8 +2450,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8" t="s">
         <v>65</v>
       </c>
@@ -1647,8 +2478,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.6" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1695,12 +2526,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E7D39-4B19-4A43-A856-12D339C470BE}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1717,100 +2548,100 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="11">
         <v>2</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.2" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1820,4 +2651,570 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9792EEE1-0118-4368-857F-83FBBA61F94B}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="5" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="24">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="24">
+        <v>4</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="24">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="24">
+        <v>3</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="24">
+        <v>5</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89769DAC-14CA-4AE8-83D1-6EED14718355}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="8" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24">
+        <v>3</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>4</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="24">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>5</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="24">
+        <v>4</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="24">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="24">
+        <v>3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>5</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="24">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6">
+      <c r="A11" s="24">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="24">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC99AEC-6503-45BA-BA09-ADF43CBAD345}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.200000000000003" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.200000000000003" customHeight="1">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.200000000000003" customHeight="1">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>